--- a/public/20220120_SUGGEREIX_Taula_C5.xlsx
+++ b/public/20220120_SUGGEREIX_Taula_C5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra-my.sharepoint.com/personal/mfont_icra_cat/Documents/Documentos/SUGGEREIX_Taules_transformades/Taules_SAD_actuals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_AD4D2F04E46CFB4ACB3E2009C513D486683EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F02799A8-6261-4EE7-869E-CB99C4097526}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_AD4D2F04E46CFB4ACB3E2009C513D486683EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C5786D-1FEC-463E-B508-35E6071546BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">Taula C5. Proposta de freqüències de monitoratge dels indicadors microbiològics (I19-I21) als punts d'entrada i sortida de la planta </t>
   </si>
@@ -112,50 +112,41 @@
     <t>&lt;8</t>
   </si>
   <si>
+    <t>&lt;9.5</t>
+  </si>
+  <si>
+    <t>1-2 cops/setmana</t>
+  </si>
+  <si>
+    <t>EP i CEU 2020 a; Ministerio de la Presidencia 2007</t>
+  </si>
+  <si>
+    <t>≥2</t>
+  </si>
+  <si>
     <t>≥5</t>
   </si>
   <si>
-    <t>&lt;9.5</t>
-  </si>
-  <si>
-    <t>1-2 cops/setmana</t>
-  </si>
-  <si>
-    <t>EP i CEU 2020 a; Ministerio de la Presidencia 2007</t>
-  </si>
-  <si>
-    <t>≥2</t>
-  </si>
-  <si>
-    <t>&lt;3</t>
-  </si>
-  <si>
     <t>&lt;5</t>
   </si>
   <si>
-    <t>1 cop/setmana</t>
-  </si>
-  <si>
-    <t>≥0.5</t>
-  </si>
-  <si>
-    <t>&lt;2</t>
-  </si>
-  <si>
-    <t>≥1</t>
-  </si>
-  <si>
     <t>Cada 2 setmanes</t>
   </si>
   <si>
     <t>EP i CEU 2020 a</t>
+  </si>
+  <si>
+    <t>≥4</t>
+  </si>
+  <si>
+    <t>&lt;4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,23 +529,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30690-7419-4183-8C38-27821210895A}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -573,7 +564,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -592,12 +583,12 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="D5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -617,82 +608,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -702,6 +667,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
@@ -865,29 +845,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E20FDEDB-7078-4525-B613-DDF1290AE642}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B12F18C-4A04-4854-A3AF-025E73C1FC57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B12F18C-4A04-4854-A3AF-025E73C1FC57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13CE724F-03D9-453E-B339-5B9842879660}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13CE724F-03D9-453E-B339-5B9842879660}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E20FDEDB-7078-4525-B613-DDF1290AE642}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/20220120_SUGGEREIX_Taula_C5.xlsx
+++ b/public/20220120_SUGGEREIX_Taula_C5.xlsx
@@ -531,9 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B30690-7419-4183-8C38-27821210895A}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -667,21 +665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
@@ -845,31 +828,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B12F18C-4A04-4854-A3AF-025E73C1FC57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13CE724F-03D9-453E-B339-5B9842879660}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E20FDEDB-7078-4525-B613-DDF1290AE642}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -885,4 +859,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13CE724F-03D9-453E-B339-5B9842879660}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B12F18C-4A04-4854-A3AF-025E73C1FC57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>